--- a/Resultados Evaluación/Reportes de Problemas/BrailleX-Dev-Sentinels - PR1.xlsx
+++ b/Resultados Evaluación/Reportes de Problemas/BrailleX-Dev-Sentinels - PR1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcela\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Resultados Evaluación\Reportes de Problemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308DE8F-0A9B-4FF2-95BD-D186AF05C337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE63B48-09DB-4BCA-9ACE-85DF61479F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="11676" yWindow="348" windowWidth="11712" windowHeight="12240" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="PR Formato" sheetId="1" r:id="rId1"/>
+    <sheet name="PR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Observaciones</t>
   </si>
@@ -60,13 +58,22 @@
   </si>
   <si>
     <t>Análisis de la causa del problema</t>
+  </si>
+  <si>
+    <t>BrailleX - Dev-Sentinels</t>
+  </si>
+  <si>
+    <t>Código - Análisis de SonarQube</t>
+  </si>
+  <si>
+    <t>Según el análisis hecho con la herramienta de SonarQube, el aplicativo tiene un número considerable de issues y deuda técnica que podría reducirse para cumplir con mejores prácticas, mantenibilidad y escalabilidad.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,35 +313,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -342,6 +322,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -363,7 +346,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,21 +709,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="7" width="20.09765625" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:8" ht="15">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -725,7 +732,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18.75">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>2</v>
@@ -733,178 +740,186 @@
       <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15">
       <c r="B4" s="4"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15">
       <c r="B5" s="4"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15">
       <c r="B6" s="4"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15">
       <c r="B8" s="4"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15">
       <c r="B9" s="4"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="15">
       <c r="B11" s="4"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="15">
       <c r="B12" s="4"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="4"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="C14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="4"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15">
       <c r="B16" s="4"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="4"/>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="15">
       <c r="B20" s="4"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="4"/>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="4"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="4"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="4"/>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="4"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
+    <row r="27" spans="2:8" ht="14.4" thickBot="1">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
